--- a/data/steel/IEAGHG_factories.xlsx
+++ b/data/steel/IEAGHG_factories.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="465" windowWidth="26520" windowHeight="16515"/>
+    <workbookView xWindow="405" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IEAGHG chains" sheetId="9" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Inflow</t>
   </si>
   <si>
-    <t>Process_ID</t>
-  </si>
-  <si>
     <t>Outflow</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>IEAGHG steel chain</t>
+  </si>
+  <si>
+    <t>process_ID</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -600,103 +600,103 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -730,533 +730,533 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1284,65 +1284,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/IEAGHG_factories.xlsx
+++ b/data/steel/IEAGHG_factories.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299353D1-33DE-6544-A826-81AB5C67EA84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="1480" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEAGHG chains" sheetId="9" r:id="rId1"/>
     <sheet name="IEAGHG connections" sheetId="1" r:id="rId2"/>
     <sheet name="IEAGHG steel chain" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>Inflow</t>
   </si>
@@ -169,9 +170,6 @@
     <t>recovered heat</t>
   </si>
   <si>
-    <t>blast furnace gas energy</t>
-  </si>
-  <si>
     <t>BOF heat</t>
   </si>
   <si>
@@ -197,13 +195,22 @@
   </si>
   <si>
     <t>process_ID</t>
+  </si>
+  <si>
+    <t>energy in blast furnace gas</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>heat_flare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,13 +226,6 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -260,16 +260,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -584,21 +583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -615,7 +614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -626,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -643,7 +642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -657,7 +656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -671,7 +670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -682,10 +681,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -697,6 +696,20 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -705,30 +718,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -739,10 +752,10 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -766,7 +779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -792,7 +805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -818,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -844,7 +857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -864,13 +877,13 @@
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -890,13 +903,13 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -916,13 +929,13 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -942,13 +955,13 @@
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -959,10 +972,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -974,7 +987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -984,11 +997,11 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>47</v>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -1000,7 +1013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -1011,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -1026,7 +1039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -1055,7 +1068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -1113,7 +1126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -1142,7 +1155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -1171,7 +1184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -1199,9 +1212,9 @@
       <c r="J17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1230,7 +1243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1244,20 +1257,31 @@
         <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1265,32 +1289,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
